--- a/target/test-classes/reports/Verification.xlsx
+++ b/target/test-classes/reports/Verification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2814C0-17E1-4DA3-A3E8-FBEE43FB6961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1545DA50-B315-4488-BB6B-E99ACC8744FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
-  <si>
-    <t>LEETCHI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="77">
   <si>
     <t>Numero bug</t>
   </si>
@@ -37,100 +34,223 @@
     <t>Heure Verification</t>
   </si>
   <si>
-    <t>60</t>
+    <t>ARVAL</t>
+  </si>
+  <si>
+    <t>449</t>
   </si>
   <si>
     <t>KO</t>
   </si>
   <si>
-    <t>58 &amp; 61</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>15:44:33</t>
-  </si>
-  <si>
-    <t>18:23:42</t>
-  </si>
-  <si>
-    <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>11:19:50</t>
-  </si>
-  <si>
-    <t>14:29:36</t>
-  </si>
-  <si>
-    <t>15:03:16</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>19:11:52</t>
+  </si>
+  <si>
+    <t>495</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>2021-05-19</t>
-  </si>
-  <si>
-    <t>11:13:27</t>
-  </si>
-  <si>
-    <t>11:15:18</t>
-  </si>
-  <si>
-    <t>11:20:41</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>11:21:39</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>13:36:50</t>
-  </si>
-  <si>
-    <t>13:38:46</t>
-  </si>
-  <si>
-    <t>14:31:56</t>
-  </si>
-  <si>
-    <t>14:58:28</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>15:07:01</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>09:49:44</t>
+    <t>19:15:14</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>19:15:47</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>19:16:27</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>19:17:39</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>19:18:40</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>19:19:34</t>
+  </si>
+  <si>
+    <t>19:38:40</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>19:39:27</t>
+  </si>
+  <si>
+    <t>19:39:59</t>
+  </si>
+  <si>
+    <t>19:40:11</t>
+  </si>
+  <si>
+    <t>19:40:35</t>
+  </si>
+  <si>
+    <t>19:40:36</t>
+  </si>
+  <si>
+    <t>19:40:39</t>
+  </si>
+  <si>
+    <t>19:41:03</t>
+  </si>
+  <si>
+    <t>19:41:24</t>
+  </si>
+  <si>
+    <t>19:42:00</t>
+  </si>
+  <si>
+    <t>19:42:28</t>
+  </si>
+  <si>
+    <t>19:43:01</t>
+  </si>
+  <si>
+    <t>19:43:02</t>
+  </si>
+  <si>
+    <t>19:43:03</t>
+  </si>
+  <si>
+    <t>19:43:04</t>
+  </si>
+  <si>
+    <t>19:43:08</t>
+  </si>
+  <si>
+    <t>19:55:03</t>
+  </si>
+  <si>
+    <t>19:55:45</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>19:56:19</t>
+  </si>
+  <si>
+    <t>19:56:31</t>
+  </si>
+  <si>
+    <t>19:56:53</t>
+  </si>
+  <si>
+    <t>19:56:54</t>
+  </si>
+  <si>
+    <t>19:56:55</t>
+  </si>
+  <si>
+    <t>19:56:58</t>
+  </si>
+  <si>
+    <t>19:57:22</t>
+  </si>
+  <si>
+    <t>19:57:43</t>
+  </si>
+  <si>
+    <t>19:58:12</t>
+  </si>
+  <si>
+    <t>19:58:38</t>
+  </si>
+  <si>
+    <t>19:59:12</t>
+  </si>
+  <si>
+    <t>19:59:13</t>
+  </si>
+  <si>
+    <t>19:59:14</t>
+  </si>
+  <si>
+    <t>19:59:15</t>
+  </si>
+  <si>
+    <t>19:59:19</t>
+  </si>
+  <si>
+    <t>20:04:01</t>
+  </si>
+  <si>
+    <t>20:05:55</t>
+  </si>
+  <si>
+    <t>20:07:49</t>
+  </si>
+  <si>
+    <t>20:14:19</t>
+  </si>
+  <si>
+    <t>20:16:59</t>
+  </si>
+  <si>
+    <t>20:19:18</t>
+  </si>
+  <si>
+    <t>21:14:00</t>
+  </si>
+  <si>
+    <t>21:14:29</t>
+  </si>
+  <si>
+    <t>21:14:48</t>
+  </si>
+  <si>
+    <t>21:14:57</t>
+  </si>
+  <si>
+    <t>21:15:07</t>
+  </si>
+  <si>
+    <t>21:15:08</t>
+  </si>
+  <si>
+    <t>21:15:11</t>
+  </si>
+  <si>
+    <t>21:15:30</t>
+  </si>
+  <si>
+    <t>21:15:44</t>
+  </si>
+  <si>
+    <t>21:16:00</t>
+  </si>
+  <si>
+    <t>21:16:20</t>
+  </si>
+  <si>
+    <t>21:16:41</t>
+  </si>
+  <si>
+    <t>21:16:42</t>
+  </si>
+  <si>
+    <t>21:16:43</t>
   </si>
 </sst>
 </file>
@@ -169,40 +289,12 @@
       <name val="Calibri (Corps)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor indexed="9"/>
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-        <bgColor indexed="10"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
@@ -300,9 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,80 +414,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="185" zoomScaleNormal="176" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -690,171 +709,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" hidden="1" customHeight="1">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="81">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="81">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="81">
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
